--- a/Casos de Prueba/TPO -Defect Report-PE16.xlsx
+++ b/Casos de Prueba/TPO -Defect Report-PE16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Facundo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA10763-4063-4CAC-9BE3-6F70141C03C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B336466-090F-44E1-8228-39F82AF42782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Incidence / Severity / Probability of reproduction</t>
   </si>
   <si>
-    <t>Critical severity - The search functionality does not work</t>
-  </si>
-  <si>
     <t>100% reproduction rate</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>QA environment, http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>Critical severity - La funcion de crear usuario funciona incorrectamente.</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19C3A39-FFB1-416B-9AA1-6DCAB5934A9A}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -759,19 +759,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="173.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -796,42 +796,42 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="13"/>
     </row>
@@ -843,9 +843,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -981,19 +984,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875BB226-C4E2-4AE6-A544-7D7BC87C8F45}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2EE936C-B9AA-4611-B9C6-F7F5AB53C5BA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1017,9 +1016,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2EE936C-B9AA-4611-B9C6-F7F5AB53C5BA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{875BB226-C4E2-4AE6-A544-7D7BC87C8F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>